--- a/fan_model.xlsx
+++ b/fan_model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronV\OneDrive - The Pennsylvania State University\Documents\PSU_Coursework\2023_Spring\AERSP_597_Internal_Flow\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronV\git\heat-exchanger-design\Bypass-Turbofan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF00F49-786D-4409-A0BD-CE1D162EF891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2AFFBF-8DAE-4D3C-B6AE-A77C406D5CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A25377CB-8596-45EB-9D64-FA45737A335E}"/>
   </bookViews>
@@ -110,39 +110,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21423332884469548"/>
+          <c:y val="0.1736111111111111"/>
+          <c:w val="0.71266150237070947"/>
+          <c:h val="0.60223789734616506"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -172,12 +152,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -208,44 +186,8 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.7376859142607168E-2"/>
-                  <c:y val="-0.29551727909011372"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -353,23 +295,10 @@
         <c:axId val="1764144096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -377,12 +306,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -390,7 +316,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Fan Face Mach</a:t>
                 </a:r>
               </a:p>
@@ -409,12 +339,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -425,18 +352,15 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -447,12 +371,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -465,6 +386,7 @@
         <c:crossAx val="1764142656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1764142656"/>
@@ -474,20 +396,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -495,12 +403,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -508,7 +413,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Efficiency</a:t>
                 </a:r>
               </a:p>
@@ -527,12 +436,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -543,18 +449,15 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -565,12 +468,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -586,8 +486,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -608,12 +510,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -633,6 +530,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1196,16 +1094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1230,7 +1128,509 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB24E2-B81A-E7B0-0871-17EE9C000880}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496050" y="1162050"/>
+              <a:ext cx="1746250" cy="292100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200"/>
+                <a:t>Fan Efficiency, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝜂</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑓𝑎𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB24E2-B81A-E7B0-0871-17EE9C000880}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496050" y="1162050"/>
+              <a:ext cx="1746250" cy="292100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200"/>
+                <a:t>Fan Efficiency, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_𝑓𝑎𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39604</cdr:x>
+      <cdr:y>0.02083</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89109</cdr:x>
+      <cdr:y>0.12731</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB24E2-B81A-E7B0-0871-17EE9C000880}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1397000" y="57150"/>
+              <a:ext cx="1746250" cy="292100"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1200"/>
+                <a:t>Fan Efficiency, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝜂</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑓𝑎𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="2" name="TextBox 2">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB24E2-B81A-E7B0-0871-17EE9C000880}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1397000" y="57150"/>
+              <a:ext cx="1746250" cy="292100"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:r>
+                <a:rPr lang="en-US" sz="1200"/>
+                <a:t>Fan Efficiency, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_𝑓𝑎𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1532,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892A102B-8F2B-4A6F-BB50-5D24852F7319}">
   <dimension ref="B3:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
